--- a/excel/供应链汇总2023-12-31.xlsx
+++ b/excel/供应链汇总2023-12-31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>备注</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>龙元供应链管理有限公司</t>
+  </si>
+  <si>
+    <t>无锡红豆</t>
+  </si>
+  <si>
+    <t>无锡红豆居家服饰有限公司</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -510,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -530,6 +536,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,19 +655,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,7 +676,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,34 +688,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,12 +800,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1131,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1464,6 +1491,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>10000000</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
